--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Тест-кейсы'!$A$1:$H$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,6 +101,18 @@
     <t>5. Начать игру, совершить несколько выстрелов, получить небольшой урон от врагов</t>
   </si>
   <si>
+    <t>7. С помошью клавиатуры поставить знак активации на пункт "Restart"</t>
+  </si>
+  <si>
+    <t>7.Знак активации станет на пункт "Restart"</t>
+  </si>
+  <si>
+    <t>KR-01</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">5. </t>
     </r>
@@ -113,20 +124,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Уровени боеприпасов и здоровья уменьшатся</t>
+      <t>Уровни боеприпасов и здоровья уменьшатся</t>
     </r>
-  </si>
-  <si>
-    <t>7. С помошью клавиатуры поставить знак активации на пункт "Restart"</t>
-  </si>
-  <si>
-    <t>7.Знак активации станет на пункт "Restart"</t>
-  </si>
-  <si>
-    <t>KR-01</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
 </sst>
 </file>
@@ -656,10 +655,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H920"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D16" sqref="D16"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E9"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +701,7 @@
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>20</v>
@@ -711,7 +710,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>9</v>
@@ -775,7 +774,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="10"/>
@@ -800,10 +799,10 @@
       <c r="C8" s="27"/>
       <c r="D8" s="25"/>
       <c r="E8" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="10"/>
